--- a/doc/MDD.xlsx
+++ b/doc/MDD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tom\Documents\Developpement Local\Git\TRT\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tom\Documents\Developpement Local\Repos\Git\TRT\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31855726-349C-4D10-AECC-C7F321A2CCA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9606FEA-6B83-483D-96C8-66751D5091FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Table</t>
   </si>
@@ -60,12 +60,6 @@
     <t>PERMISSION</t>
   </si>
   <si>
-    <t>codePerm</t>
-  </si>
-  <si>
-    <t>descPerm</t>
-  </si>
-  <si>
     <t>UTILISATEUR</t>
   </si>
   <si>
@@ -96,18 +90,12 @@
     <t>POST</t>
   </si>
   <si>
-    <t>AVOIR</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>Id de l'utilisateur</t>
   </si>
   <si>
-    <t>Code de la permission accordée</t>
-  </si>
-  <si>
     <t>Code de la permission</t>
   </si>
   <si>
@@ -153,16 +138,49 @@
     <t>Id de l'auteur</t>
   </si>
   <si>
-    <t>Pseudo du joueur</t>
-  </si>
-  <si>
-    <t>Mot de passe hashé</t>
-  </si>
-  <si>
     <t>Date de création du compte</t>
   </si>
   <si>
     <t>Date de dernière utilisation</t>
+  </si>
+  <si>
+    <t>idPermission</t>
+  </si>
+  <si>
+    <t>nomPermission</t>
+  </si>
+  <si>
+    <t>codePermission</t>
+  </si>
+  <si>
+    <t>identifiantUser</t>
+  </si>
+  <si>
+    <t>ACCEDER</t>
+  </si>
+  <si>
+    <t>Id de la permission accordée</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>emailUser</t>
+  </si>
+  <si>
+    <t>Id de la permission</t>
+  </si>
+  <si>
+    <t>Pseudo de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Identifiant de connexion</t>
+  </si>
+  <si>
+    <t>Email de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Mot de passe haché</t>
   </si>
 </sst>
 </file>
@@ -200,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -277,29 +295,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,9 +326,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +333,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,438 +654,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <v>255</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10">
-        <v>60</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10">
-        <v>60</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="F19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6">
-        <v>255</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="14">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="10">
-        <v>60</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="6">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
